--- a/resources/data-definition/CDS/SubjectSampleMapping_DD.xlsx
+++ b/resources/data-definition/CDS/SubjectSampleMapping_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F7395-628E-9348-94F1-8DA600CCF185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55A70C-FEB6-DD41-B122-F9917FC88B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4320" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4320" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubjectSampleMapping_DD" sheetId="1" r:id="rId1"/>
@@ -51,17 +51,17 @@
     <t>Sample ID</t>
   </si>
   <si>
-    <t>participant_id</t>
-  </si>
-  <si>
-    <t>sample_id</t>
+    <t>SUBJECT_ID</t>
+  </si>
+  <si>
+    <t>SAMPLE_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,6 +90,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +440,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -474,7 +480,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -485,7 +491,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">

--- a/resources/data-definition/CDS/SubjectSampleMapping_DD.xlsx
+++ b/resources/data-definition/CDS/SubjectSampleMapping_DD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55A70C-FEB6-DD41-B122-F9917FC88B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41DCA69-C94B-2B42-B4AA-C06B8FD3D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4320" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>Sample ID</t>
   </si>
   <si>
-    <t>SUBJECT_ID</t>
-  </si>
-  <si>
-    <t>SAMPLE_ID</t>
+    <t>study_participant_id</t>
+  </si>
+  <si>
+    <t>sample_id</t>
   </si>
 </sst>
 </file>

--- a/resources/data-definition/CDS/SubjectSampleMapping_DD.xlsx
+++ b/resources/data-definition/CDS/SubjectSampleMapping_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41DCA69-C94B-2B42-B4AA-C06B8FD3D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1CD942-900F-5E4A-A849-652F0A369031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4320" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,16 +45,16 @@
     <t>string</t>
   </si>
   <si>
-    <t>Subject ID</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
     <t>study_participant_id</t>
   </si>
   <si>
     <t>sample_id</t>
+  </si>
+  <si>
+    <t>A sequence of letters, numbers, or characters that uniquely identifies the subject who has taken part in the investigation or research study.</t>
+  </si>
+  <si>
+    <t>A unique sequence of alphanumeric characters used to identify the specimen at it's point of origin.</t>
   </si>
 </sst>
 </file>
@@ -439,15 +439,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="62.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="103.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
@@ -481,10 +478,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -492,10 +489,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>

--- a/resources/data-definition/CDS/SubjectSampleMapping_DD.xlsx
+++ b/resources/data-definition/CDS/SubjectSampleMapping_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1CD942-900F-5E4A-A849-652F0A369031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD5CAF-D7FC-AA4B-8102-B2AD6346AE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4320" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>study_participant_id</t>
-  </si>
-  <si>
     <t>sample_id</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>A unique sequence of alphanumeric characters used to identify the specimen at it's point of origin.</t>
+  </si>
+  <si>
+    <t>participant_id</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -478,10 +480,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -489,10 +491,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
